--- a/addons/pharma-pos/demo_excel/pharma_pos.product_size.xlsx
+++ b/addons/pharma-pos/demo_excel/pharma_pos.product_size.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Product Size</t>
   </si>
@@ -28,13 +28,16 @@
     <t>500 ml</t>
   </si>
   <si>
-    <t>Bottle</t>
+    <t>Tablet</t>
   </si>
   <si>
     <t>10 mg</t>
   </si>
   <si>
-    <t>Tablet</t>
+    <t>20 cc</t>
+  </si>
+  <si>
+    <t>Injection</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,10 +423,21 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <v>44225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44227</v>
       </c>
     </row>
   </sheetData>

--- a/addons/pharma-pos/demo_excel/pharma_pos.product_size.xlsx
+++ b/addons/pharma-pos/demo_excel/pharma_pos.product_size.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Date Added</t>
   </si>
   <si>
-    <t xml:space="preserve">500 ml</t>
+    <t xml:space="preserve">50 mg</t>
   </si>
   <si>
     <t xml:space="preserve">Tablet</t>
@@ -168,10 +168,10 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="30.71"/>
   </cols>
@@ -187,7 +187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>

--- a/addons/pharma-pos/demo_excel/pharma_pos.product_size.xlsx
+++ b/addons/pharma-pos/demo_excel/pharma_pos.product_size.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Product Size</t>
   </si>
@@ -31,22 +31,10 @@
     <t xml:space="preserve">Date Added</t>
   </si>
   <si>
-    <t xml:space="preserve">50 mg</t>
+    <t xml:space="preserve">200 mg</t>
   </si>
   <si>
     <t xml:space="preserve">Tablet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500 mg</t>
   </si>
 </sst>
 </file>
@@ -168,7 +156,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -188,49 +176,27 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>44225</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>44225</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="n">
         <v>44227</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>44227</v>
-      </c>
-    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
